--- a/卫生监督进度V6.0.xlsx
+++ b/卫生监督进度V6.0.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10420" windowWidth="19420" xWindow="-110" yWindow="-110"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="卫生监督进度表" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="卫生监督进度表" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -404,111 +404,111 @@
     </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="17" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="15" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="16" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="20" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="21" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="22" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="4" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="9" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="11" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="5" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="23" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
     <cellStyle name="常规 2 3" xfId="3"/>
@@ -2055,7 +2055,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -2065,133 +2065,133 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="P2" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="Q2" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
       </text>
     </comment>
-    <comment authorId="0" ref="W2" shapeId="0">
+    <comment ref="W2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="X2" shapeId="0">
+    <comment ref="X2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
       </text>
     </comment>
-    <comment authorId="0" ref="AD2" shapeId="0">
+    <comment ref="AD2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="AE2" shapeId="0">
+    <comment ref="AE2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
       </text>
     </comment>
-    <comment authorId="0" ref="AK2" shapeId="0">
+    <comment ref="AK2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="AL2" shapeId="0">
+    <comment ref="AL2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
       </text>
     </comment>
-    <comment authorId="0" ref="AR2" shapeId="0">
+    <comment ref="AR2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="AS2" shapeId="0">
+    <comment ref="AS2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
       </text>
     </comment>
-    <comment authorId="0" ref="AY2" shapeId="0">
+    <comment ref="AY2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="AZ2" shapeId="0">
+    <comment ref="AZ2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
       </text>
     </comment>
-    <comment authorId="0" ref="BF2" shapeId="0">
+    <comment ref="BF2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="BG2" shapeId="0">
+    <comment ref="BG2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
       </text>
     </comment>
-    <comment authorId="0" ref="BM2" shapeId="0">
+    <comment ref="BM2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="BN2" shapeId="0">
+    <comment ref="BN2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
       </text>
     </comment>
-    <comment authorId="0" ref="BT2" shapeId="0">
+    <comment ref="BT2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="BU2" shapeId="0">
+    <comment ref="BU2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
       </text>
     </comment>
-    <comment authorId="0" ref="CA2" shapeId="0">
+    <comment ref="CA2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="CB2" shapeId="0">
+    <comment ref="CB2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
       </text>
     </comment>
-    <comment authorId="0" ref="CH2" shapeId="0">
+    <comment ref="CH2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；红色为监测报告未收全</t>
       </text>
     </comment>
-    <comment authorId="0" ref="CI2" shapeId="0">
+    <comment ref="CI2" authorId="0" shapeId="0">
       <text>
         <t>作者:
 此栏绿色为正常；黄色且内容为X号，为已签发结果告知书；黄色空格为尚未收到检测报告；黄色其它为尚未签发结果告知书。</t>
@@ -2463,31 +2463,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:CI42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
-      <pane activePane="bottomRight" state="frozen" topLeftCell="AO2" xSplit="2" ySplit="1"/>
-      <selection activeCell="C1" pane="topRight" sqref="C1"/>
-      <selection activeCell="A2" pane="bottomLeft" sqref="A2"/>
-      <selection activeCell="BC13" pane="bottomRight" sqref="BC13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="AO2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="BC13" sqref="BC13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.58203125" defaultRowHeight="16.5"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="25.25"/>
-    <col customWidth="1" max="2" min="2" style="11" width="10.33203125"/>
-    <col customWidth="1" max="3" min="3" style="11" width="6.75"/>
-    <col customWidth="1" max="87" min="4" style="11" width="5.25"/>
-    <col customWidth="1" max="93" min="88" style="11" width="8.58203125"/>
-    <col customWidth="1" max="16384" min="94" style="11" width="8.58203125"/>
+    <col width="25.25" customWidth="1" style="11" min="1" max="1"/>
+    <col width="10.33203125" customWidth="1" style="11" min="2" max="2"/>
+    <col width="6.75" customWidth="1" style="11" min="3" max="3"/>
+    <col width="5.25" customWidth="1" style="11" min="4" max="87"/>
+    <col width="8.58203125" customWidth="1" style="11" min="88" max="93"/>
+    <col width="8.58203125" customWidth="1" style="11" min="94" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="17.15" r="1" thickTop="1">
+    <row r="1" ht="17.15" customHeight="1" thickTop="1">
       <c r="A1" s="27" t="inlineStr">
         <is>
           <t>单位名称</t>
@@ -2612,7 +2612,7 @@
       <c r="CH1" s="25" t="n"/>
       <c r="CI1" s="26" t="n"/>
     </row>
-    <row customHeight="1" ht="65.15000000000001" r="2">
+    <row r="2" ht="65.15000000000001" customHeight="1">
       <c r="A2" s="28" t="n"/>
       <c r="B2" s="33" t="n"/>
       <c r="C2" s="28" t="n"/>
@@ -3049,7 +3049,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.15" r="3">
+    <row r="3" ht="17.15" customHeight="1">
       <c r="A3" s="27" t="inlineStr">
         <is>
           <t>配餐公司</t>
@@ -3364,7 +3364,7 @@
       <c r="CH3" s="27" t="n"/>
       <c r="CI3" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="4">
+    <row r="4" ht="17.15" customHeight="1">
       <c r="A4" s="27" t="inlineStr">
         <is>
           <t>（1）号食堂</t>
@@ -3683,7 +3683,7 @@
       <c r="CH4" s="27" t="n"/>
       <c r="CI4" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="5">
+    <row r="5" ht="17.15" customHeight="1">
       <c r="A5" s="27" t="inlineStr">
         <is>
           <t>小吃城</t>
@@ -3988,7 +3988,7 @@
       <c r="CH5" s="27" t="n"/>
       <c r="CI5" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="6">
+    <row r="6" ht="17.15" customHeight="1">
       <c r="A6" s="27" t="inlineStr">
         <is>
           <t>蓝仕咖啡</t>
@@ -4285,7 +4285,7 @@
       <c r="CH6" s="27" t="n"/>
       <c r="CI6" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="7">
+    <row r="7" ht="17.15" customHeight="1">
       <c r="A7" s="27" t="inlineStr">
         <is>
           <t>牛肉面馆</t>
@@ -4582,7 +4582,7 @@
       <c r="CH7" s="27" t="n"/>
       <c r="CI7" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="8">
+    <row r="8" ht="17.15" customHeight="1">
       <c r="A8" s="27" t="inlineStr">
         <is>
           <t>空港酒店</t>
@@ -4893,7 +4893,7 @@
       <c r="CH8" s="27" t="n"/>
       <c r="CI8" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="9">
+    <row r="9" ht="17.15" customHeight="1">
       <c r="A9" s="27" t="inlineStr">
         <is>
           <t>空港酒店</t>
@@ -5222,7 +5222,7 @@
       <c r="CH9" s="27" t="n"/>
       <c r="CI9" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="10">
+    <row r="10" ht="17.15" customHeight="1">
       <c r="A10" s="27" t="inlineStr">
         <is>
           <t>贵宾厅</t>
@@ -5555,7 +5555,7 @@
       <c r="CH10" s="27" t="n"/>
       <c r="CI10" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="11">
+    <row r="11" ht="17.15" customHeight="1">
       <c r="A11" s="27" t="inlineStr">
         <is>
           <t>小西湖</t>
@@ -5864,7 +5864,7 @@
       <c r="CH11" s="18" t="n"/>
       <c r="CI11" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="12">
+    <row r="12" ht="17.15" customHeight="1">
       <c r="A12" s="27" t="inlineStr">
         <is>
           <t>新林顿利</t>
@@ -6187,7 +6187,7 @@
       <c r="CH12" s="18" t="n"/>
       <c r="CI12" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="13">
+    <row r="13" ht="17.15" customHeight="1">
       <c r="A13" s="27" t="inlineStr">
         <is>
           <t>万华楼</t>
@@ -6498,7 +6498,7 @@
       <c r="CH13" s="27" t="n"/>
       <c r="CI13" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="14">
+    <row r="14" ht="17.15" customHeight="1">
       <c r="A14" s="27" t="inlineStr">
         <is>
           <t>汉堡王</t>
@@ -6827,7 +6827,7 @@
       <c r="CH14" s="27" t="n"/>
       <c r="CI14" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="15">
+    <row r="15" ht="17.15" customHeight="1">
       <c r="A15" s="27" t="inlineStr">
         <is>
           <t>首信经营部（2楼安检外西）</t>
@@ -7182,7 +7182,7 @@
       <c r="CH15" s="27" t="n"/>
       <c r="CI15" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="16">
+    <row r="16" ht="17.15" customHeight="1">
       <c r="A16" s="27" t="inlineStr">
         <is>
           <t>雪域特产（2楼安检外东）</t>
@@ -7295,7 +7295,7 @@
       <c r="CH16" s="27" t="n"/>
       <c r="CI16" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="17">
+    <row r="17" ht="17.15" customHeight="1">
       <c r="A17" s="27" t="inlineStr">
         <is>
           <t>首信商贸（远机位）</t>
@@ -7408,7 +7408,7 @@
       <c r="CH17" s="27" t="n"/>
       <c r="CI17" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="18">
+    <row r="18" ht="17.15" customHeight="1">
       <c r="A18" s="27" t="inlineStr">
         <is>
           <t>葆晟经营部（1楼）</t>
@@ -7521,7 +7521,7 @@
       <c r="CH18" s="27" t="n"/>
       <c r="CI18" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="19">
+    <row r="19" ht="17.15" customHeight="1">
       <c r="A19" s="27" t="inlineStr">
         <is>
           <t>首信经营部（蓝仕咖啡南）</t>
@@ -7634,7 +7634,7 @@
       <c r="CH19" s="27" t="n"/>
       <c r="CI19" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="20">
+    <row r="20" ht="17.15" customHeight="1">
       <c r="A20" s="27" t="inlineStr">
         <is>
           <t>首信经营部（蓝仕咖啡西）</t>
@@ -7747,7 +7747,7 @@
       <c r="CH20" s="27" t="n"/>
       <c r="CI20" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="21">
+    <row r="21" ht="17.15" customHeight="1">
       <c r="A21" s="27" t="inlineStr">
         <is>
           <t>诺蓝杞</t>
@@ -8098,7 +8098,7 @@
       <c r="CH21" s="27" t="n"/>
       <c r="CI21" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="22">
+    <row r="22" ht="17.15" customHeight="1">
       <c r="A22" s="27" t="inlineStr">
         <is>
           <t>阿米雪</t>
@@ -8437,7 +8437,7 @@
       <c r="CH22" s="27" t="n"/>
       <c r="CI22" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="23">
+    <row r="23" ht="17.15" customHeight="1">
       <c r="A23" s="27" t="inlineStr">
         <is>
           <t>青青稞酒</t>
@@ -8854,7 +8854,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.15" r="24">
+    <row r="24" ht="17.15" customHeight="1">
       <c r="A24" s="27" t="inlineStr">
         <is>
           <t>益鑫手抓</t>
@@ -9175,7 +9175,7 @@
       <c r="CH24" s="27" t="n"/>
       <c r="CI24" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="25">
+    <row r="25" ht="17.15" customHeight="1">
       <c r="A25" s="27" t="inlineStr">
         <is>
           <t>货场小卖部</t>
@@ -9510,7 +9510,7 @@
       <c r="CH25" s="27" t="n"/>
       <c r="CI25" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="26">
+    <row r="26" ht="17.15" customHeight="1">
       <c r="A26" s="27" t="inlineStr">
         <is>
           <t>一木山楂</t>
@@ -9841,7 +9841,7 @@
       <c r="CH26" s="17" t="n"/>
       <c r="CI26" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="27">
+    <row r="27" ht="17.15" customHeight="1">
       <c r="A27" s="27" t="inlineStr">
         <is>
           <t>一木山楂</t>
@@ -9954,7 +9954,7 @@
       <c r="CH27" s="17" t="n"/>
       <c r="CI27" s="30" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.15" r="28" s="9">
+    <row r="28" ht="17.15" customFormat="1" customHeight="1" s="9">
       <c r="A28" s="27" t="inlineStr">
         <is>
           <t>源武黑鸭</t>
@@ -10307,7 +10307,7 @@
       <c r="CH28" s="27" t="n"/>
       <c r="CI28" s="30" t="n"/>
     </row>
-    <row customFormat="1" customHeight="1" ht="17.15" r="29" s="10">
+    <row r="29" ht="17.15" customFormat="1" customHeight="1" s="10">
       <c r="A29" s="27" t="inlineStr">
         <is>
           <t>天佑牧人（2楼）</t>
@@ -10644,7 +10644,7 @@
       <c r="CH29" s="17" t="n"/>
       <c r="CI29" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="30">
+    <row r="30" ht="17.15" customHeight="1">
       <c r="A30" s="27" t="inlineStr">
         <is>
           <t>天佑牧人（1楼）</t>
@@ -10773,7 +10773,7 @@
       <c r="CH30" s="17" t="n"/>
       <c r="CI30" s="19" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="31" thickBot="1">
+    <row r="31" ht="17.15" customHeight="1" thickBot="1">
       <c r="A31" s="27" t="inlineStr">
         <is>
           <t>千紫缘</t>
@@ -11108,7 +11108,7 @@
       <c r="CH31" s="7" t="n"/>
       <c r="CI31" s="8" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="32" thickTop="1">
+    <row r="32" ht="17.15" customHeight="1" thickTop="1">
       <c r="A32" s="27" t="inlineStr">
         <is>
           <t>水站</t>
@@ -11423,7 +11423,7 @@
       <c r="CH32" s="27" t="n"/>
       <c r="CI32" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="33">
+    <row r="33" ht="17.15" customHeight="1">
       <c r="A33" s="27" t="inlineStr">
         <is>
           <t>空港酒店</t>
@@ -11816,7 +11816,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.15" r="34">
+    <row r="34" ht="17.15" customHeight="1">
       <c r="A34" s="27" t="inlineStr">
         <is>
           <t>贵宾厅</t>
@@ -12207,7 +12207,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.15" r="35">
+    <row r="35" ht="17.15" customHeight="1">
       <c r="A35" s="27" t="inlineStr">
         <is>
           <t>房车营地</t>
@@ -12308,7 +12308,7 @@
       <c r="CH35" s="18" t="n"/>
       <c r="CI35" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="36">
+    <row r="36" ht="17.15" customHeight="1">
       <c r="A36" s="27" t="inlineStr">
         <is>
           <t>新林顿利</t>
@@ -12707,8 +12707,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.5" r="37"/>
-    <row customHeight="1" ht="17" r="38"/>
+    <row r="37" ht="17.5" customHeight="1"/>
+    <row r="38" ht="17" customHeight="1"/>
     <row r="40">
       <c r="A40" s="11" t="inlineStr">
         <is>
@@ -12716,7 +12716,7 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="17.15" r="41">
+    <row r="41" ht="17.15" customHeight="1">
       <c r="A41" s="27" t="inlineStr">
         <is>
           <t>跨海牛肉面</t>
@@ -13117,7 +13117,7 @@
       </c>
       <c r="CI41" s="30" t="n"/>
     </row>
-    <row customHeight="1" ht="17.15" r="42">
+    <row r="42" ht="17.15" customHeight="1">
       <c r="A42" s="27" t="inlineStr">
         <is>
           <t>2号清真档口</t>
@@ -13540,630 +13540,630 @@
     <mergeCell ref="BV1:CB1"/>
   </mergeCells>
   <conditionalFormatting sqref="D12 F12:J12 D29:J36 AC4:AD4 D3:AB4 D41:CI42 AF15:AI20 AE3:CI4 D5:CI9 D11:J11 D10:AE10 AJ10:CI10 G11:G12 K11:AE12 AJ11:AS12 AW11:AZ12 BD11:BG12 D33:BJ36 BR11:BU12 BY11:CB12 CF11:CI12 BK11:BN12 BA15:BC27 BO15:BQ27 BV15:BX27 CC15:CE27 BH15:BJ27 BH32:BJ32 AD15:AD28 D15:AC27 AP15:AP31 AW15:AW31 BD15:BD31 BR15:BR31 BY15:BY31 CF15:CF31 AX15:AY27 BE15:BF27 BA32:BF32 BL15:BM27 BL32:BM36 BS15:BT27 BO32:BT36 BZ15:CA27 BV32:CA36 CG15:CH27 CC32:CH36 D13:AE14 AE15:AE27 D32:AE32 AJ15:AO27 AQ15:AV27 AJ32:AY32 AZ15:AZ32 BG15:BG32 BN15:BN36 BU15:BU36 CB15:CB36 CI15:CI36 AJ13:CI14 BK15:BK36">
-    <cfRule dxfId="1" priority="308" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="308" dxfId="1">
       <formula>LEN(TRIM(D3))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:J36 AC4:AD4 D3:AB4 D41:CI42 AF15:AI20 AE3:CI4 D5:CI9 AJ10:CI10 AJ11:AS12 AW11:AZ12 BD11:BG12 D33:BJ36 BR11:BU12 BY11:CB12 CF11:CI12 BK11:BN12 BA15:BC27 BO15:BQ27 BV15:BX27 CC15:CE27 BH15:BJ27 BH32:BJ32 AD15:AD28 D15:AC27 AP15:AP31 AW15:AW31 BD15:BD31 BR15:BR31 BY15:BY31 CF15:CF31 AX15:AY27 BE15:BF27 BA32:BF32 BL15:BM27 BL32:BM36 BS15:BT27 BO32:BT36 BZ15:CA27 BV32:CA36 CG15:CH27 CC32:CH36 D10:AE14 AE15:AE27 D32:AE32 AJ15:AO27 AQ15:AV27 AJ32:AY32 AZ15:AZ32 BG15:BG32 BN15:BN36 BU15:BU36 CB15:CB36 CI15:CI36 AJ13:CI14 BK15:BK36">
-    <cfRule dxfId="0" priority="309" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="309" dxfId="0">
       <formula>LEN(TRIM(D3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29:Q36 K29:M36 AF10 AF34:AF36 AF11:AI12 AF36:AI36 AF14:AI14 AF32:AI32">
-    <cfRule dxfId="1" priority="271" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="271" dxfId="1">
       <formula>LEN(TRIM(K10))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="272" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="272" dxfId="0">
       <formula>LEN(TRIM(K10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:N36">
-    <cfRule dxfId="1" priority="261" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="261" dxfId="1">
       <formula>LEN(TRIM(N29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="262" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="262" dxfId="0">
       <formula>LEN(TRIM(N29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R29:T36 V29:X36">
-    <cfRule dxfId="1" priority="251" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="251" dxfId="1">
       <formula>LEN(TRIM(R29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="252" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="252" dxfId="0">
       <formula>LEN(TRIM(R29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U29:U36">
-    <cfRule dxfId="1" priority="249" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="249" dxfId="1">
       <formula>LEN(TRIM(U29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="250" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="250" dxfId="0">
       <formula>LEN(TRIM(U29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC3:AD3 Y29:AA36 AC29:AD36">
-    <cfRule dxfId="1" priority="247" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="247" dxfId="1">
       <formula>LEN(TRIM(Y3))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="248" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="248" dxfId="0">
       <formula>LEN(TRIM(Y3))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB29:AB36">
-    <cfRule dxfId="1" priority="245" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="245" dxfId="1">
       <formula>LEN(TRIM(AB29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="246" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="246" dxfId="0">
       <formula>LEN(TRIM(AB29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF24:AH27 AF23 AF21:AH22 AF13 AF29:AH36 AJ29:AK36">
-    <cfRule dxfId="1" priority="243" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="243" dxfId="1">
       <formula>LEN(TRIM(AF13))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="244" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="244" dxfId="0">
       <formula>LEN(TRIM(AF13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI24:AI27 AI21:AI22 AI29:AI36">
-    <cfRule dxfId="1" priority="241" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="241" dxfId="1">
       <formula>LEN(TRIM(AI21))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="242" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="242" dxfId="0">
       <formula>LEN(TRIM(AI21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ29:AR36 AM29:AN36">
-    <cfRule dxfId="1" priority="239" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="239" dxfId="1">
       <formula>LEN(TRIM(AM29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="240" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="240" dxfId="0">
       <formula>LEN(TRIM(AM29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX29:AY36 AT29:AV36 AT11:AT12 AV11:AV12">
-    <cfRule dxfId="1" priority="230" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="230" dxfId="1">
       <formula>LEN(TRIM(AT11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="231" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="231" dxfId="0">
       <formula>LEN(TRIM(AT11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE29:BF36 BA29:BC36 BA11:BA12 BC11:BC12">
-    <cfRule dxfId="1" priority="226" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="226" dxfId="1">
       <formula>LEN(TRIM(BA11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="227" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="227" dxfId="0">
       <formula>LEN(TRIM(BA11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL29:BM36 BH29:BJ36 BH11:BH12 BJ11">
-    <cfRule dxfId="1" priority="222" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="222" dxfId="1">
       <formula>LEN(TRIM(BH11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="223" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="223" dxfId="0">
       <formula>LEN(TRIM(BH11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS29:BT36 BO29:BQ36 BO11:BO12 BQ11:BQ12">
-    <cfRule dxfId="1" priority="218" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="218" dxfId="1">
       <formula>LEN(TRIM(BO11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="219" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="219" dxfId="0">
       <formula>LEN(TRIM(BO11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ29:CA36 BV29:BX36 BV11:BV12 BX11:BX12">
-    <cfRule dxfId="1" priority="214" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="214" dxfId="1">
       <formula>LEN(TRIM(BV11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="215" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="215" dxfId="0">
       <formula>LEN(TRIM(BV11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG29:CH36 CC29:CE36 CC11:CC12 CE11:CE12">
-    <cfRule dxfId="1" priority="210" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="210" dxfId="1">
       <formula>LEN(TRIM(CC11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="211" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="211" dxfId="0">
       <formula>LEN(TRIM(CC11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG23:AH23">
-    <cfRule dxfId="1" priority="206" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="206" dxfId="1">
       <formula>LEN(TRIM(AG23))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="207" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="207" dxfId="0">
       <formula>LEN(TRIM(AG23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI23">
-    <cfRule dxfId="1" priority="204" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="204" dxfId="1">
       <formula>LEN(TRIM(AI23))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="205" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="205" dxfId="0">
       <formula>LEN(TRIM(AI23))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG13:AH13">
-    <cfRule dxfId="1" priority="198" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="198" dxfId="1">
       <formula>LEN(TRIM(AG13))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="199" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="199" dxfId="0">
       <formula>LEN(TRIM(AG13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI13">
-    <cfRule dxfId="1" priority="196" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="196" dxfId="1">
       <formula>LEN(TRIM(AI13))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="197" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="197" dxfId="0">
       <formula>LEN(TRIM(AI13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG34:AH36">
-    <cfRule dxfId="1" priority="194" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="194" dxfId="1">
       <formula>LEN(TRIM(AG34))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="195" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="195" dxfId="0">
       <formula>LEN(TRIM(AG34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI34:AI36">
-    <cfRule dxfId="1" priority="192" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="192" dxfId="1">
       <formula>LEN(TRIM(AI34))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="193" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="193" dxfId="0">
       <formula>LEN(TRIM(AI34))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG10:AH10">
-    <cfRule dxfId="1" priority="190" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="190" dxfId="1">
       <formula>LEN(TRIM(AG10))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="191" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="191" dxfId="0">
       <formula>LEN(TRIM(AG10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI10">
-    <cfRule dxfId="1" priority="188" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="188" dxfId="1">
       <formula>LEN(TRIM(AI10))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="189" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="189" dxfId="0">
       <formula>LEN(TRIM(AI10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:J28">
-    <cfRule dxfId="1" priority="186" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="186" dxfId="1">
       <formula>LEN(TRIM(D28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="187" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="187" dxfId="0">
       <formula>LEN(TRIM(D28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28:Q28 K28:M28">
-    <cfRule dxfId="1" priority="184" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="184" dxfId="1">
       <formula>LEN(TRIM(K28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="185" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="185" dxfId="0">
       <formula>LEN(TRIM(K28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule dxfId="1" priority="182" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="182" dxfId="1">
       <formula>LEN(TRIM(N28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="183" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="183" dxfId="0">
       <formula>LEN(TRIM(N28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R28:T28 V28:X28">
-    <cfRule dxfId="1" priority="180" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="180" dxfId="1">
       <formula>LEN(TRIM(R28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="181" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="181" dxfId="0">
       <formula>LEN(TRIM(R28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U28">
-    <cfRule dxfId="1" priority="178" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="178" dxfId="1">
       <formula>LEN(TRIM(U28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="179" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="179" dxfId="0">
       <formula>LEN(TRIM(U28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y28:AA28 AC28">
-    <cfRule dxfId="1" priority="176" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="176" dxfId="1">
       <formula>LEN(TRIM(Y28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="177" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="177" dxfId="0">
       <formula>LEN(TRIM(Y28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB28">
-    <cfRule dxfId="1" priority="174" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="174" dxfId="1">
       <formula>LEN(TRIM(AB28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="175" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="175" dxfId="0">
       <formula>LEN(TRIM(AB28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF28:AH28 AJ28:AK28">
-    <cfRule dxfId="1" priority="172" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="172" dxfId="1">
       <formula>LEN(TRIM(AF28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="173" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="173" dxfId="0">
       <formula>LEN(TRIM(AF28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI28">
-    <cfRule dxfId="1" priority="170" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="170" dxfId="1">
       <formula>LEN(TRIM(AI28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="171" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="171" dxfId="0">
       <formula>LEN(TRIM(AI28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ28:AR28 AM28:AN28">
-    <cfRule dxfId="1" priority="168" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="168" dxfId="1">
       <formula>LEN(TRIM(AM28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="169" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="169" dxfId="0">
       <formula>LEN(TRIM(AM28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX28:AY28 AT28:AV28">
-    <cfRule dxfId="1" priority="164" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="164" dxfId="1">
       <formula>LEN(TRIM(AT28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="165" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="165" dxfId="0">
       <formula>LEN(TRIM(AT28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE28:BF28 BA28:BC28">
-    <cfRule dxfId="1" priority="160" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="160" dxfId="1">
       <formula>LEN(TRIM(BA28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="161" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="161" dxfId="0">
       <formula>LEN(TRIM(BA28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL28:BM28 BH28:BJ28">
-    <cfRule dxfId="1" priority="156" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="156" dxfId="1">
       <formula>LEN(TRIM(BH28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="157" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="157" dxfId="0">
       <formula>LEN(TRIM(BH28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS28:BT28 BO28:BQ28">
-    <cfRule dxfId="1" priority="152" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="152" dxfId="1">
       <formula>LEN(TRIM(BO28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="153" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="153" dxfId="0">
       <formula>LEN(TRIM(BO28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BZ28:CA28 BV28:BX28">
-    <cfRule dxfId="1" priority="148" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="148" dxfId="1">
       <formula>LEN(TRIM(BV28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="149" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="149" dxfId="0">
       <formula>LEN(TRIM(BV28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CG28:CH28 CC28:CE28">
-    <cfRule dxfId="1" priority="144" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="144" dxfId="1">
       <formula>LEN(TRIM(CC28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="145" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="145" dxfId="0">
       <formula>LEN(TRIM(CC28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO29:AO36">
-    <cfRule dxfId="1" priority="140" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="140" dxfId="1">
       <formula>LEN(TRIM(AO29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="141" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="141" dxfId="0">
       <formula>LEN(TRIM(AO29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO28">
-    <cfRule dxfId="1" priority="138" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="138" dxfId="1">
       <formula>LEN(TRIM(AO28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="139" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="139" dxfId="0">
       <formula>LEN(TRIM(AO28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU11:AU12">
-    <cfRule dxfId="1" priority="122" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="122" dxfId="1">
       <formula>LEN(TRIM(AU11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="123" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="123" dxfId="0">
       <formula>LEN(TRIM(AU11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB11:BB12">
-    <cfRule dxfId="1" priority="120" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="120" dxfId="1">
       <formula>LEN(TRIM(BB11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="121" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="121" dxfId="0">
       <formula>LEN(TRIM(BB11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI11:BI12">
-    <cfRule dxfId="1" priority="118" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="118" dxfId="1">
       <formula>LEN(TRIM(BI11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="119" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="119" dxfId="0">
       <formula>LEN(TRIM(BI11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP11:BP12">
-    <cfRule dxfId="1" priority="116" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="116" dxfId="1">
       <formula>LEN(TRIM(BP11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="117" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="117" dxfId="0">
       <formula>LEN(TRIM(BP11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BW11:BW12">
-    <cfRule dxfId="1" priority="114" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="114" dxfId="1">
       <formula>LEN(TRIM(BW11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="115" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="115" dxfId="0">
       <formula>LEN(TRIM(BW11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CD11:CD12">
-    <cfRule dxfId="1" priority="112" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="112" dxfId="1">
       <formula>LEN(TRIM(CD11))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="113" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="113" dxfId="0">
       <formula>LEN(TRIM(CD11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD41:AD42 AK41:AK42 AR41:AR42 AY41:AY42 BF41:BF42 BM41:BM42 BT41:BT42 CA41:CA42 CH41:CH42 AD3:AD28 AD32:AD36 AK3:AK28 AK32:AK36 AR3:AR28 AR32:AR36 AY3:AY28 AY32:AY36 BF3:BF28 BF32:BF36 BM3:BM28 BM32:BM36 BT3:BT28 BT32:BT36 CA3:CA28 CA32:CA36 CH3:CH28 CH32:CH36">
-    <cfRule dxfId="1" operator="notEqual" priority="111" type="cellIs">
+    <cfRule type="cellIs" priority="111" operator="notEqual" dxfId="1">
       <formula>AC3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK41:AK42 AR41:AR42 BF41:BF42 BM41:BM42 BT41:BT42 CA41:CA42 CH41:CH42 AK3:AK36 AR3:AR36 BF3:BF36 BM3:BM36 BT3:BT36 CA3:CA36 CH3:CH36">
-    <cfRule dxfId="1" operator="equal" priority="110" type="cellIs">
+    <cfRule type="cellIs" priority="110" operator="equal" dxfId="1">
       <formula>XEQ3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR29:AR36">
-    <cfRule dxfId="1" priority="107" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="107" dxfId="1">
       <formula>LEN(TRIM(AR29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="108" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="108" dxfId="0">
       <formula>LEN(TRIM(AR29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR28">
-    <cfRule dxfId="1" priority="105" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="105" dxfId="1">
       <formula>LEN(TRIM(AR28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="106" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="106" dxfId="0">
       <formula>LEN(TRIM(AR28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY29:AY36">
-    <cfRule dxfId="1" priority="102" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="102" dxfId="1">
       <formula>LEN(TRIM(AY29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="103" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="103" dxfId="0">
       <formula>LEN(TRIM(AY29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY28">
-    <cfRule dxfId="1" priority="100" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="100" dxfId="1">
       <formula>LEN(TRIM(AY28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="101" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="101" dxfId="0">
       <formula>LEN(TRIM(AY28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF29:BF36">
-    <cfRule dxfId="1" priority="97" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="97" dxfId="1">
       <formula>LEN(TRIM(BF29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="98" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="98" dxfId="0">
       <formula>LEN(TRIM(BF29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF28">
-    <cfRule dxfId="1" priority="95" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="95" dxfId="1">
       <formula>LEN(TRIM(BF28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="96" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="96" dxfId="0">
       <formula>LEN(TRIM(BF28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM29:BM36">
-    <cfRule dxfId="1" priority="92" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="92" dxfId="1">
       <formula>LEN(TRIM(BM29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="93" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="93" dxfId="0">
       <formula>LEN(TRIM(BM29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM28">
-    <cfRule dxfId="1" priority="90" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="90" dxfId="1">
       <formula>LEN(TRIM(BM28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="91" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="91" dxfId="0">
       <formula>LEN(TRIM(BM28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT29:BT36">
-    <cfRule dxfId="1" priority="87" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="87" dxfId="1">
       <formula>LEN(TRIM(BT29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="88" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="88" dxfId="0">
       <formula>LEN(TRIM(BT29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BT28">
-    <cfRule dxfId="1" priority="85" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="85" dxfId="1">
       <formula>LEN(TRIM(BT28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="86" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="86" dxfId="0">
       <formula>LEN(TRIM(BT28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA29:CA36">
-    <cfRule dxfId="1" priority="82" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="82" dxfId="1">
       <formula>LEN(TRIM(CA29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="83" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="83" dxfId="0">
       <formula>LEN(TRIM(CA29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CA28">
-    <cfRule dxfId="1" priority="80" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="80" dxfId="1">
       <formula>LEN(TRIM(CA28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="81" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="81" dxfId="0">
       <formula>LEN(TRIM(CA28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH29:CH36">
-    <cfRule dxfId="1" priority="77" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="77" dxfId="1">
       <formula>LEN(TRIM(CH29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="78" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="78" dxfId="0">
       <formula>LEN(TRIM(CH29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH28">
-    <cfRule dxfId="1" priority="75" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="75" dxfId="1">
       <formula>LEN(TRIM(CH28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="76" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="76" dxfId="0">
       <formula>LEN(TRIM(CH28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X41:X42 AE41:AE42 AL41:AL42 AS41:AS42 AZ41:AZ42 BG41:BG42 BN41:BN42 BU41:BU42 CB41:CB42 CI41:CI42 X3:X36 AE3:AE36 AL3:AL36 AS3:AS36 AZ3:AZ36 BG3:BG36 BN3:BN36 BU3:BU36 CB3:CB36 CI3:CI36">
-    <cfRule dxfId="27" operator="notEqual" priority="73" type="cellIs">
+    <cfRule type="cellIs" priority="73" operator="notEqual" dxfId="27">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE29:AE36">
-    <cfRule dxfId="1" priority="71" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="71" dxfId="1">
       <formula>LEN(TRIM(AE29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="72" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="72" dxfId="0">
       <formula>LEN(TRIM(AE29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE28">
-    <cfRule dxfId="1" priority="69" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="69" dxfId="1">
       <formula>LEN(TRIM(AE28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="70" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="70" dxfId="0">
       <formula>LEN(TRIM(AE28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL29:AL36">
-    <cfRule dxfId="1" priority="66" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="66" dxfId="1">
       <formula>LEN(TRIM(AL29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="67" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="67" dxfId="0">
       <formula>LEN(TRIM(AL29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL28">
-    <cfRule dxfId="1" priority="64" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="64" dxfId="1">
       <formula>LEN(TRIM(AL28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="65" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="65" dxfId="0">
       <formula>LEN(TRIM(AL28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS29:AS36">
-    <cfRule dxfId="1" priority="61" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="61" dxfId="1">
       <formula>LEN(TRIM(AS29))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="62" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="62" dxfId="0">
       <formula>LEN(TRIM(AS29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS28">
-    <cfRule dxfId="1" priority="59" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="59" dxfId="1">
       <formula>LEN(TRIM(AS28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="60" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="60" dxfId="0">
       <formula>LEN(TRIM(AS28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AZ28">
-    <cfRule dxfId="1" priority="54" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="54" dxfId="1">
       <formula>LEN(TRIM(AZ28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="55" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="55" dxfId="0">
       <formula>LEN(TRIM(AZ28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG28">
-    <cfRule dxfId="1" priority="24" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="24" dxfId="1">
       <formula>LEN(TRIM(BG28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="25" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="25" dxfId="0">
       <formula>LEN(TRIM(BG28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN28">
-    <cfRule dxfId="1" priority="19" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="19" dxfId="1">
       <formula>LEN(TRIM(BN28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="20" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="20" dxfId="0">
       <formula>LEN(TRIM(BN28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BU28">
-    <cfRule dxfId="1" priority="14" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="14" dxfId="1">
       <formula>LEN(TRIM(BU28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="15" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="15" dxfId="0">
       <formula>LEN(TRIM(BU28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CB28">
-    <cfRule dxfId="1" priority="9" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="9" dxfId="1">
       <formula>LEN(TRIM(CB28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="10" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="10" dxfId="0">
       <formula>LEN(TRIM(CB28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CI28">
-    <cfRule dxfId="1" priority="4" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="4" dxfId="1">
       <formula>LEN(TRIM(CI28))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="5" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="5" dxfId="0">
       <formula>LEN(TRIM(CI28))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY41:AY42 AY3:AY36">
-    <cfRule dxfId="1" operator="equal" priority="311" type="cellIs">
+    <cfRule type="cellIs" priority="311" operator="equal" dxfId="1">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ12">
-    <cfRule dxfId="1" priority="1" type="containsBlanks">
+    <cfRule type="containsBlanks" priority="1" dxfId="1">
       <formula>LEN(TRIM(BJ12))=0</formula>
     </cfRule>
-    <cfRule dxfId="0" priority="2" type="notContainsBlanks">
+    <cfRule type="notContainsBlanks" priority="2" dxfId="0">
       <formula>LEN(TRIM(BJ12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins bottom="0.7480314960629921" footer="0.3149606299212598" header="0.3149606299212598" left="0.3149606299212598" right="0.3149606299212598" top="0.7480314960629921"/>
-  <pageSetup fitToWidth="0" orientation="portrait" paperSize="9"/>
-  <legacyDrawing r:id="anysvml"/>
+  <pageMargins left="0.3149606299212598" right="0.3149606299212598" top="0.7480314960629921" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" fitToWidth="0"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>